--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Yearly Results of Datamatics Global Services(in Rs. Cr.)</t>
   </si>
@@ -146,6 +146,66 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>60.97</t>
+  </si>
+  <si>
+    <t>61.63</t>
+  </si>
+  <si>
+    <t>68.42</t>
+  </si>
+  <si>
+    <t>67.44</t>
+  </si>
+  <si>
+    <t>159.18</t>
+  </si>
+  <si>
+    <t>130.90</t>
+  </si>
+  <si>
+    <t>138.45</t>
+  </si>
+  <si>
+    <t>163.88</t>
+  </si>
+  <si>
+    <t>186.09</t>
+  </si>
+  <si>
+    <t>203.93</t>
+  </si>
+  <si>
+    <t>188.58</t>
+  </si>
+  <si>
+    <t>281.61</t>
+  </si>
+  <si>
+    <t>305.71</t>
+  </si>
+  <si>
+    <t>337.85</t>
+  </si>
+  <si>
+    <t>389.67</t>
+  </si>
+  <si>
+    <t>415.84</t>
+  </si>
+  <si>
+    <t>457.66</t>
+  </si>
+  <si>
+    <t>578.51</t>
+  </si>
+  <si>
+    <t>733.27</t>
+  </si>
+  <si>
+    <t>735.35</t>
   </si>
 </sst>
 </file>
@@ -587,8 +647,8 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>60.97</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
         <v>60.97</v>
@@ -639,16 +699,16 @@
         <v>50</v>
       </c>
       <c r="S2">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="T2">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="U2">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="V2">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="W2">
         <v>1.26</v>
@@ -661,8 +721,8 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>61.63</v>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3">
         <v>61.63</v>
@@ -686,7 +746,7 @@
         <v>29.61</v>
       </c>
       <c r="J3">
-        <v>2.150588235294117</v>
+        <v>2.15</v>
       </c>
       <c r="K3">
         <v>29.61</v>
@@ -713,16 +773,16 @@
         <v>50</v>
       </c>
       <c r="S3">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="T3">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="U3">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="V3">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="W3">
         <v>1.26</v>
@@ -735,8 +795,8 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>68.42</v>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4">
         <v>68.42</v>
@@ -760,7 +820,7 @@
         <v>21.79</v>
       </c>
       <c r="J4">
-        <v>2.150588235294117</v>
+        <v>2.15</v>
       </c>
       <c r="K4">
         <v>21.79</v>
@@ -787,16 +847,16 @@
         <v>30</v>
       </c>
       <c r="S4">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="T4">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="U4">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="V4">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="W4">
         <v>1.27</v>
@@ -809,8 +869,8 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>67.44</v>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5">
         <v>67.44</v>
@@ -834,7 +894,7 @@
         <v>17.12</v>
       </c>
       <c r="J5">
-        <v>2.150588235294117</v>
+        <v>2.15</v>
       </c>
       <c r="K5">
         <v>17.12</v>
@@ -861,16 +921,16 @@
         <v>15</v>
       </c>
       <c r="S5">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="T5">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="U5">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="V5">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="W5">
         <v>1.27</v>
@@ -883,8 +943,8 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>159.18</v>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
       <c r="C6">
         <v>159.18</v>
@@ -935,16 +995,16 @@
         <v>25</v>
       </c>
       <c r="S6">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="T6">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="U6">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="V6">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="W6">
         <v>2.31</v>
@@ -957,8 +1017,8 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>130.9</v>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
       <c r="C7">
         <v>130.9</v>
@@ -1009,16 +1069,16 @@
         <v>25</v>
       </c>
       <c r="S7">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="T7">
-        <v>7.827857142857143</v>
+        <v>7.83</v>
       </c>
       <c r="U7">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="V7">
-        <v>7.887142857142856</v>
+        <v>7.89</v>
       </c>
       <c r="W7">
         <v>1.87</v>
@@ -1031,8 +1091,8 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>138.45</v>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
       <c r="C8">
         <v>138.45</v>
@@ -1105,8 +1165,8 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>163.88</v>
+      <c r="B9" t="s">
+        <v>51</v>
       </c>
       <c r="C9">
         <v>163.88</v>
@@ -1179,8 +1239,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>186.09</v>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="C10">
         <v>186.09</v>
@@ -1253,8 +1313,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>203.93</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11">
         <v>203.93</v>
@@ -1327,8 +1387,8 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>188.58</v>
+      <c r="B12" t="s">
+        <v>54</v>
       </c>
       <c r="C12">
         <v>188.58</v>
@@ -1401,8 +1461,8 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>281.61</v>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
       <c r="C13">
         <v>281.61</v>
@@ -1465,18 +1525,18 @@
         <v>5.49</v>
       </c>
       <c r="W13">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X13">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>305.71</v>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14">
         <v>305.71</v>
@@ -1539,18 +1599,18 @@
         <v>3.7</v>
       </c>
       <c r="W14">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X14">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>337.85</v>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
       <c r="C15">
         <v>337.85</v>
@@ -1613,18 +1673,18 @@
         <v>6.9</v>
       </c>
       <c r="W15">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X15">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>389.67</v>
+      <c r="B16" t="s">
+        <v>58</v>
       </c>
       <c r="C16">
         <v>389.67</v>
@@ -1687,18 +1747,18 @@
         <v>4.96</v>
       </c>
       <c r="W16">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X16">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>415.84</v>
+      <c r="B17" t="s">
+        <v>59</v>
       </c>
       <c r="C17">
         <v>415.84</v>
@@ -1761,18 +1821,18 @@
         <v>5.21</v>
       </c>
       <c r="W17">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X17">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>457.66</v>
+      <c r="B18" t="s">
+        <v>60</v>
       </c>
       <c r="C18">
         <v>457.66</v>
@@ -1820,7 +1880,7 @@
         <v>529.9400000000001</v>
       </c>
       <c r="R18">
-        <v>34.21052631578947</v>
+        <v>34.21</v>
       </c>
       <c r="S18">
         <v>9.550000000000001</v>
@@ -1835,18 +1895,18 @@
         <v>9.550000000000001</v>
       </c>
       <c r="W18">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X18">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>578.51</v>
+      <c r="B19" t="s">
+        <v>61</v>
       </c>
       <c r="C19">
         <v>578.51</v>
@@ -1909,18 +1969,18 @@
         <v>18.85</v>
       </c>
       <c r="W19">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X19">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>733.27</v>
+      <c r="B20" t="s">
+        <v>62</v>
       </c>
       <c r="C20">
         <v>733.27</v>
@@ -1983,18 +2043,18 @@
         <v>17.49</v>
       </c>
       <c r="W20">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X20">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
-        <v>735.35</v>
+      <c r="B21" t="s">
+        <v>63</v>
       </c>
       <c r="C21">
         <v>735.35</v>
@@ -2057,10 +2117,10 @@
         <v>14.64</v>
       </c>
       <c r="W21">
-        <v>1.571818181818182</v>
+        <v>1.57</v>
       </c>
       <c r="X21">
-        <v>30.17090909090909</v>
+        <v>30.17</v>
       </c>
     </row>
   </sheetData>
